--- a/Wetspot/36807/res.xlsx
+++ b/Wetspot/36807/res.xlsx
@@ -8,19 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\William\Desktop\CONQA\_Git\CONQA\Wetspot\36807\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A739AE5A-797F-4B76-9ECF-7D3DA589A9CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53BB320A-F772-424D-9F90-C945B7E77349}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11505" yWindow="2985" windowWidth="26775" windowHeight="17745" xr2:uid="{65367736-637D-4BB6-AE35-BC415DE60E9F}"/>
+    <workbookView xWindow="11505" yWindow="3135" windowWidth="26775" windowHeight="17745" xr2:uid="{65367736-637D-4BB6-AE35-BC415DE60E9F}"/>
   </bookViews>
   <sheets>
     <sheet name="res" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">res!$A$1:$I$29</definedName>
+  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="39">
   <si>
     <t>type</t>
   </si>
@@ -47,6 +50,96 @@
   </si>
   <si>
     <t>Resource Id</t>
+  </si>
+  <si>
+    <t>checklist</t>
+  </si>
+  <si>
+    <t>section</t>
+  </si>
+  <si>
+    <t>External Paving (Pods &amp; Pavers) ITP</t>
+  </si>
+  <si>
+    <t>External Paving (Pods &amp; Pavers)</t>
+  </si>
+  <si>
+    <t>Details</t>
+  </si>
+  <si>
+    <t>checkpoint</t>
+  </si>
+  <si>
+    <t>1. Ensure Material and Tiles Set out Approved As per the drawings and spec</t>
+  </si>
+  <si>
+    <t>textbox</t>
+  </si>
+  <si>
+    <t>HOLD POINT</t>
+  </si>
+  <si>
+    <t>2. Inspect substrate surface. Do not proceed works if substrate is unsatisfactory and report any issues to MPX for rectification</t>
+  </si>
+  <si>
+    <t>3. Install Pedestal System &amp; Lay pavers</t>
+  </si>
+  <si>
+    <t>4. Install Windproof Locking system where required (P8 Pavers)</t>
+  </si>
+  <si>
+    <t>5. Clean area</t>
+  </si>
+  <si>
+    <t>7. Final Inspection and acceptance by MPX</t>
+  </si>
+  <si>
+    <t>Wetspot Supervisor signature</t>
+  </si>
+  <si>
+    <t>holdpoint</t>
+  </si>
+  <si>
+    <t>Village Green Paving ITP</t>
+  </si>
+  <si>
+    <t>Paving</t>
+  </si>
+  <si>
+    <t>Drawings in use:</t>
+  </si>
+  <si>
+    <t>3. Set out Pavers</t>
+  </si>
+  <si>
+    <t>Maximum 60mm only to courtyards and public realms</t>
+  </si>
+  <si>
+    <t>Maximum 120mm Sand &amp; Cement + Planicrete mudfix mortar in lieu of binding slab</t>
+  </si>
+  <si>
+    <t>label</t>
+  </si>
+  <si>
+    <t>5. Lay Pavers</t>
+  </si>
+  <si>
+    <t>6. Apply Grout</t>
+  </si>
+  <si>
+    <t>7. Inspect Waste Blockages - Provide Photo/s</t>
+  </si>
+  <si>
+    <t>8. Clean area</t>
+  </si>
+  <si>
+    <t>9. Final Inspection and acceptance by MPX</t>
+  </si>
+  <si>
+    <t>4. Apply Mudfixing Mortar</t>
+  </si>
+  <si>
+    <t>itp</t>
   </si>
 </sst>
 </file>
@@ -189,7 +282,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -367,6 +460,30 @@
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -530,8 +647,12 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -907,18 +1028,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63D45572-CFED-4CA4-A1B6-303542CA6BBC}">
-  <dimension ref="A1:I1"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:I29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.85546875" customWidth="1"/>
-    <col min="2" max="2" width="176" customWidth="1"/>
-    <col min="8" max="8" width="15.5703125" customWidth="1"/>
-    <col min="9" max="9" width="16.28515625" customWidth="1"/>
+    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="116.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="33" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -950,7 +1077,253 @@
         <v>8</v>
       </c>
     </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I2" s="1"/>
+    </row>
+    <row r="3" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I14" s="1"/>
+    </row>
+    <row r="15" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>31</v>
+      </c>
+      <c r="B22" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>31</v>
+      </c>
+      <c r="B23" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
   </sheetData>
+  <autoFilter ref="A1:I29" xr:uid="{63D45572-CFED-4CA4-A1B6-303542CA6BBC}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="checklist"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>